--- a/collections.xlsx
+++ b/collections.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +20,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+  <si>
+    <t xml:space="preserve">last reviewed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no of disks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no progs</t>
+  </si>
   <si>
     <t xml:space="preserve">collection name</t>
   </si>
@@ -31,9 +40,6 @@
     <t xml:space="preserve">url</t>
   </si>
   <si>
-    <t xml:space="preserve">no of disks</t>
-  </si>
-  <si>
     <t xml:space="preserve">notes</t>
   </si>
   <si>
@@ -64,21 +70,121 @@
     <t xml:space="preserve">https://www.flaxcottage.com/Educational/Default.asp</t>
   </si>
   <si>
+    <t xml:space="preserve">ROMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Various</t>
+  </si>
+  <si>
+    <t xml:space="preserve">need to retire and align with the excelent work at https://tobylobster.github.io/rom_library/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cheats</t>
+  </si>
+  <si>
+    <t xml:space="preserve">che</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mainly from STH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Complete BBC micro</t>
+  </si>
+  <si>
     <t xml:space="preserve">cbm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://sweh.spuddy.org/Beeb/MB_Collection/ https://bbcmicro.co.uk/  
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A&amp;B computing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A&amp;B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Repton screens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Public domain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8bs</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">need t o add </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://mdfs.net/Mirror</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://8bs.com/8bscat.htmImage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/JGH/ </t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -94,6 +200,20 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -138,9 +258,29 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -155,81 +295,316 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:E6"/>
+  <dimension ref="A2:G11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C5" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="8.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="25.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="9.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="38.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="28.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="28.66"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="0" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="n">
+        <v>45876</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>353</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="F3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="0" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="n">
+        <v>45870</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>354</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>1215</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="F4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="0" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="s">
+      <c r="E5" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="F5" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="n">
+        <v>45855</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>607</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="n">
+        <v>45870</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="n">
+        <v>45869</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>428</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>3869</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="n">
+        <v>45855</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>403</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G6" r:id="rId1" display="need to retire and align with the excelent work at https://tobylobster.github.io/rom_library/"/>
+    <hyperlink ref="F8" r:id="rId2" display="https://sweh.spuddy.org/Beeb/MB_Collection/ https://bbcmicro.co.uk/  "/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/collections.xlsx
+++ b/collections.xlsx
@@ -175,11 +175,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -200,13 +201,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -279,8 +273,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -408,8 +402,8 @@
   </sheetPr>
   <dimension ref="A2:G11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C5" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -544,7 +538,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="n">
         <v>45869</v>
       </c>
@@ -560,7 +554,7 @@
       <c r="E8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>26</v>
       </c>
     </row>
@@ -582,6 +576,15 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="n">
+        <v>45870</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>111</v>
+      </c>
       <c r="D10" s="1" t="s">
         <v>29</v>
       </c>
@@ -603,7 +606,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G6" r:id="rId1" display="need to retire and align with the excelent work at https://tobylobster.github.io/rom_library/"/>
-    <hyperlink ref="F8" r:id="rId2" display="https://sweh.spuddy.org/Beeb/MB_Collection/ https://bbcmicro.co.uk/  "/>
+    <hyperlink ref="F8" r:id="rId2" display="https://sweh.spuddy.org/Beeb/MB_Collection/ https://bbcmicro.co.uk/  &#10; "/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/collections.xlsx
+++ b/collections.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t xml:space="preserve">last reviewed</t>
   </si>
@@ -169,6 +169,12 @@
       </rPr>
       <t xml:space="preserve">/JGH/ </t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Disc user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DU</t>
   </si>
 </sst>
 </file>
@@ -400,10 +406,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:G11"/>
+  <dimension ref="A2:G12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
+      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -576,7 +582,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="n">
+      <c r="A10" s="3" t="n">
         <v>45870</v>
       </c>
       <c r="B10" s="1" t="n">
@@ -601,6 +607,23 @@
       </c>
       <c r="G11" s="2" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="n">
+        <v>45874</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/collections.xlsx
+++ b/collections.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t xml:space="preserve">last reviewed</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t xml:space="preserve">A&amp;B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Removed &amp; from title as perl does not like</t>
   </si>
   <si>
     <t xml:space="preserve">Repton screens</t>
@@ -181,10 +184,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
-    <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -258,7 +260,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -277,10 +279,6 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -408,8 +406,8 @@
   </sheetPr>
   <dimension ref="A2:G12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -564,9 +562,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="n">
-        <v>45855</v>
+        <v>45914</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>47</v>
@@ -579,6 +577,9 @@
       </c>
       <c r="E9" s="1" t="s">
         <v>28</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -592,25 +593,25 @@
         <v>111</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D11" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="n">
+      <c r="A12" s="3" t="n">
         <v>45874</v>
       </c>
       <c r="B12" s="1" t="n">
@@ -620,10 +621,10 @@
         <v>152</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/collections.xlsx
+++ b/collections.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t xml:space="preserve">last reviewed</t>
   </si>
@@ -178,6 +178,18 @@
   </si>
   <si>
     <t xml:space="preserve">DU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jgh  PUBLIC DOMAIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jgh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://mdfs.net/Mirror/Image/JGH/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOME REALLY GOOD STUFF DOES NOT FIT WELL INTO MENU SYSTEM</t>
   </si>
 </sst>
 </file>
@@ -404,10 +416,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:G12"/>
+  <dimension ref="A2:G13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
+      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -627,6 +639,26 @@
         <v>36</v>
       </c>
     </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B13" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G6" r:id="rId1" display="need to retire and align with the excelent work at https://tobylobster.github.io/rom_library/"/>
